--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,40 +466,420 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dfsadf</t>
+          <t>asdsad</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>asfdsaf</t>
+          <t>sadsa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dsafdas</t>
+          <t>dsadsa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>fdsafdsa</t>
+          <t>dasdsad</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fsadfsda</t>
+          <t>asdsa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>asdfsdaf</t>
+          <t>sadsas</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>fsdaf</t>
+          <t>dasd</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sadas</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dsadsad</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>asdsa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dsadas</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>dasdsa</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>asdasda</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>dasdsadsad</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bbbbb</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bb</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bbb</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>bb</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>bbb</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>bbb</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bbbbbssss</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bbbb</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>bbbb</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>bb</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>bbb</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>bb</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>dddd</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>a3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>asdsad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>asdsa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>dsadas</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>asdsa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,12 +504,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sadas</t>
+          <t>asdsa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dsadsad</t>
+          <t>dsadasd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,22 +519,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dsadas</t>
+          <t>dsads</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>dasdsa</t>
+          <t>adasd</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>asdasda</t>
+          <t>dsadasd</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>dasdsadsad</t>
+          <t>asdsa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -542,37 +542,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>aaaa</t>
+          <t>aaaaaaaaa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>aaaaaaaaaaaaaaa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aaaaaaaaaaaaaa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>aaaaaaaaaaaaa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aaaaaaaaaaaaaaa</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aaaaaaaaaaaaaaa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>aaaaaaaaaaaaaa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -580,306 +580,40 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sss</t>
+          <t>bbbbb</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sss</t>
+          <t>bbbbbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ss</t>
+          <t>bbbbbbbbbbb</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ss</t>
+          <t>bbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ss</t>
+          <t>bbbbbbbbbbb</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>sss</t>
+          <t>bbbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sss</t>
+          <t>bbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bbbbb</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>bb</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>bbb</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>bb</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>bbb</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>bbb</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bbbbbssss</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>bbbb</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>bbbb</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>bb</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>bbb</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>bb</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ddd</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ddd</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>dddd</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ddd</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>a2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>a3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>asdsad</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>asdsa</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>sad</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>dsadas</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>asdsa</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ssss</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,44 @@
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>asdfdafa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dsfdasf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>asfs</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>dfdasfas</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>fasdfadsf</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>fasdfas</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,6 +653,82 @@
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sdad</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sadd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>asdsad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>sadsadsadsa</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>dsadsada</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>asdsada</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dsads</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>dasdsad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>adasdsadsadas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>sadasdsa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,6 +729,44 @@
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dasfdsafds</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>afasdfsda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fdsafdsa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fsdaf</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>safdsa</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>sdafdsafdsaf</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>fdsaf</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -1,112 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pillipp-my.sharepoint.com/personal/monitoring_pillipp_de/Documents/Dokumente/GitHub/Monitoring-kivy/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59545F9246FB5CF1700071591510344D07F1BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E727ACBA-58D6-4AB1-B84F-1D0A1F8045A6}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Customers" sheetId="1" r:id="rId1"/>
+    <sheet name="Customers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Sensors (Code, Type)</t>
-  </si>
-  <si>
-    <t>Sensor Description</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>asdasdadas</t>
-  </si>
-  <si>
-    <t>wsdASDFAFASDFASDFS</t>
-  </si>
-  <si>
-    <t>WRQW</t>
-  </si>
-  <si>
-    <t>EWEQR</t>
-  </si>
-  <si>
-    <t>QWERQWER</t>
-  </si>
-  <si>
-    <t>wqerwqerwerqwe</t>
-  </si>
-  <si>
-    <t>adsa</t>
-  </si>
-  <si>
-    <t>dasd</t>
-  </si>
-  <si>
-    <t>dasdasdas</t>
-  </si>
-  <si>
-    <t>asdas</t>
-  </si>
-  <si>
-    <t>Invalid sensor data</t>
-  </si>
-  <si>
-    <t>asdasdasdsadasd</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,94 +408,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="39.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sensors Code</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sensors Type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sensor Description</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sdsadsa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dasdsad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>asdassad</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>flowmeter_sensor</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>asdsd</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>asdsad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>asdsad</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>flowmeter_sensor</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>dasdasd</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>flowmeter_sensor</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>asdsa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsad</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>asdasdasdas</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>flowmeter_sensor</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>assadasd</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>flowmeter_sensor</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,138 +476,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sdsadsa</t>
+          <t>asdsadsa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dasdsad</t>
+          <t>dsadsadsa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>asdassad</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>flowmeter_sensor</t>
+          <t>dsadassad</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>asdsd</t>
+          <t>SDSD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sadsad</t>
+          <t>ASGASDFSDAsdaff</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>asdsad</t>
+          <t>sadfsaf</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>asdsad</t>
+          <t>afdsfsda</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sadsad</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>flowmeter_sensor</t>
+          <t>fsdaf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>sadfdsa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>fsdafasd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>dasdasd</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>flowmeter_sensor</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>asdsa</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dsad</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sadsad</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>asdasdasdas</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>flowmeter_sensor</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sadsad</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>assadasd</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>flowmeter_sensor</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>fsdafasdfdsafsadf</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sdaffsda</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -1,34 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pillipp-my.sharepoint.com/personal/monitoring_pillipp_de/Documents/Dokumente/GitHub/Monitoring-kivy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_56BD719CD42849750E668BC544DA91C465D585DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{146091D7-E165-458B-AC5B-FD7239DAD138}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Customers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Sensors Code</t>
+  </si>
+  <si>
+    <t>Sensors Type</t>
+  </si>
+  <si>
+    <t>Sensor Description</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Khajavi</t>
+  </si>
+  <si>
+    <t>a8.Khajavi@gmail.com</t>
+  </si>
+  <si>
+    <t>6345;6345;6345</t>
+  </si>
+  <si>
+    <t>temperature;flowmeter;ampermeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khajavi </t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +110,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,143 +412,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sensors Code</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Sensors Type</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sensor Description</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>asdsadsa</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dsadsadsa</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>dsadassad</t>
-        </is>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SDSD</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ASGASDFSDAsdaff</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sadfsaf</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>afdsfsda</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>fsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sadfdsa</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>fsdafasd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>fsdafasdfdsafsadf</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sdaffsda</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>sadf</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -1,97 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pillipp-my.sharepoint.com/personal/monitoring_pillipp_de/Documents/Dokumente/GitHub/Monitoring-kivy/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_56BD719CD42849750E668BC544DA91C465D585DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{146091D7-E165-458B-AC5B-FD7239DAD138}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Customers" sheetId="1" r:id="rId1"/>
+    <sheet name="Customers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Sensors Code</t>
-  </si>
-  <si>
-    <t>Sensors Type</t>
-  </si>
-  <si>
-    <t>Sensor Description</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Khajavi</t>
-  </si>
-  <si>
-    <t>a8.Khajavi@gmail.com</t>
-  </si>
-  <si>
-    <t>6345;6345;6345</t>
-  </si>
-  <si>
-    <t>temperature;flowmeter;ampermeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vida </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khajavi </t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,82 +408,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sensors Code</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sensors Type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sensor Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Khajavi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>a8.Khajavi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vida </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Khajavi </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sdasd</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>safsadf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sadfdsaf</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>asdfsdafsdaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sadfdsaf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sfaasd</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fdsafdasf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sdafasdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sdafsadf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sdafsdaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>asdfdsafsad</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sadfsda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fsdafsadfasfd</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sfasdfasd</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>asdfsdaf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>dsafsadfsdaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>asdfdsafsdaf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sadfasd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sdafsadfsad</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sadfdsaf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sdafsdafsd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>afdsafasdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sadfasdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>asdfsf</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>dsafdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>asdfdsafds</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adsafdasfdsa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dsafdsafdsaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sadfsdafdsa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>fdsafdsaf</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>dsafdsasda</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fdasfdsaf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>asdfsda</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sdafsadfdsaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>asdfdsaf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sadfsdafsdaf</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sadfsdafasdf</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -506,6 +506,21 @@
           <t>test@gmail.com</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>123132;56243;12321;2131231;2314234;324234;2343214</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>flowmeter;ampermeter;voltmeter;flowmeter;voltmeter;temperature;flowmeter</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>afddasf;wewqrweqrweqr;adfsdfdsfsadf;fddasfdsafsa;dfadsfdsf;dfasfadsf;werwqrwer</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -715,10 +730,6 @@
           <t>sadfsdafasdf</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -508,17 +508,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>123132;56243;12321;2131231;2314234;324234;2343214</t>
+          <t>123132;56243;12321;2131231;2314234;324234;2343214;12321312;26543543;2423132;234324;234324;234324</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>flowmeter;ampermeter;voltmeter;flowmeter;voltmeter;temperature;flowmeter</t>
+          <t>flowmeter;ampermeter;voltmeter;flowmeter;voltmeter;temperature;flowmeter;flowmeter;flowmeter;temperature;temperature;temperature;temperature</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>afddasf;wewqrweqrweqr;adfsdfdsfsadf;fddasfdsafsa;dfadsfdsf;dfasfadsf;werwqrwer</t>
+          <t>afddasf;wewqrweqrweqr;adfsdfdsfsadf;fddasfdsafsa;dfadsfdsf;dfasfadsf;werwqrwer;sdasfdsfsdf;waerwqf;;;;</t>
         </is>
       </c>
     </row>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,230 +506,6 @@
           <t>test@gmail.com</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>123132;56243;12321;2131231;2314234;324234;2343214;12321312;26543543;2423132;234324;234324;234324</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>flowmeter;ampermeter;voltmeter;flowmeter;voltmeter;temperature;flowmeter;flowmeter;flowmeter;temperature;temperature;temperature;temperature</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>afddasf;wewqrweqrweqr;adfsdfdsfsadf;fddasfdsafsa;dfadsfdsf;dfasfadsf;werwqrwer;sdasfdsfsdf;waerwqf;;;;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sdasd</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>safsadf</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>sadfdsaf</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>asdfsdafsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>sadfdsaf</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sfaasd</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>fdsafdasf</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>sdafasdf</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sdafsadf</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>sdafsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>asdfdsafsad</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>sadfsda</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>fsdafsadfasfd</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>sfasdfasd</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>asdfsdaf</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>dsafsadfsdaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>asdfdsafsdaf</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>sadfasd</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>sdafsadfsad</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>sadfdsaf</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>sdafsdafsd</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>afdsafasdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>sadfasdf</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>asdfsf</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>dsafdas</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>asdfdsafds</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>adsafdasfdsa</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dsafdsafdsaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>sadfsdafdsa</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>fdsafdsaf</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>dsafdsasda</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>fdasfdsaf</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>asdfsda</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>sdafsadfdsaf</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>asdfdsaf</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>sadfsdafsdaf</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>sadfsdafasdf</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -489,21 +489,36 @@
           <t>a8.Khajavi@gmail.com</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1234;1232321;123123;32112;1234312</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>voltmeter;flowmeter;temperature;ampermeter;ampermeter</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vida </t>
+          <t>vida</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Khajavi </t>
+          <t>Khajavi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>test@gmail.com</t>
+          <t>dasjkdhas</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>klhlfasd</t>
         </is>
       </c>
     </row>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28755" yWindow="390" windowWidth="26850" windowHeight="12105" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +412,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="25.140625" customWidth="1" min="3" max="3"/>
+    <col width="68.7109375" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -491,34 +494,63 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1234;1232321;123123;32112;1234312</t>
+          <t>123213;123213;213213;12321313;1221312</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>voltmeter;flowmeter;temperature;ampermeter;ampermeter</t>
+          <t>flowmeter;temperature;temperature;temperature;ampermeter</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vida</t>
+          <t>dsadsad</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Khajavi</t>
+          <t>asdsad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dasjkdhas</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>klhlfasd</t>
+          <t>sadsadsadasd</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>dasdsa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dasdasd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>asdasdsada</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sdsadsa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dasdsa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>dsadsadsd</t>
         </is>
       </c>
     </row>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28755" yWindow="390" windowWidth="26850" windowHeight="12105" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28755" yWindow="390" windowWidth="26850" windowHeight="12105" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -421,6 +421,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col width="25.140625" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="8" max="8"/>
+    <col width="54.140625" customWidth="1" min="9" max="9"/>
     <col width="68.7109375" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -506,51 +508,52 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dsadsad</t>
+          <t>aaaaaaaaaa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>asdsad</t>
+          <t>bbbbbbbbbb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sadsadsadasd</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>dasdsa</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dasdasd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>asdasdsada</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>sdsadsa</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dasdsa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>dsadsadsd</t>
+          <t>ggggg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>asdasdsa</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12321</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>213213</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3123</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ampermeter</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>room in the pipe</t>
         </is>
       </c>
     </row>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28755" yWindow="390" windowWidth="26850" windowHeight="12105" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28440" yWindow="285" windowWidth="26850" windowHeight="12105" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" state="visible" r:id="rId1"/>
@@ -414,8 +414,8 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -494,66 +494,62 @@
           <t>a8.Khajavi@gmail.com</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>123213;123213;213213;12321313;1221312</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>flowmeter;temperature;temperature;temperature;ampermeter</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aaaaaaaaaa</t>
+          <t>Vida</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bbbbbbbbbb</t>
+          <t>Khajavi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ggggg</t>
+          <t>test@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>asdasdsa</t>
+          <t>021398602390</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12321</t>
+          <t>Erlangen</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>213213</t>
+          <t>test------------------------------
+------------------------
+-----------------------------------
+---------------</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3123</t>
+          <t>blablablbal</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ampermeter</t>
+          <t>voltmeter</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>room in the pipe</t>
+          <t>test-------------++++++++++++
++++++++++
+++++++++++++
++</t>
         </is>
       </c>
     </row>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -45,8 +45,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -415,12 +418,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col width="25.140625" customWidth="1" min="3" max="3"/>
+    <col width="26.28515625" customWidth="1" min="6" max="6"/>
+    <col width="26.5703125" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
     <col width="54.140625" customWidth="1" min="9" max="9"/>
     <col width="68.7109375" customWidth="1" min="10" max="10"/>
@@ -534,22 +539,19 @@
           <t>blablablbal</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2024</t>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>2024;2012</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>voltmeter</t>
+          <t>flowmeter;temperature</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>test-------------++++++++++++
-+++++++++
-++++++++++++
-+</t>
+          <t>Flowmeter for Pillipp GmbH;++++++++++++++</t>
         </is>
       </c>
     </row>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -539,21 +539,7 @@
           <t>blablablbal</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>2024;2012</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>flowmeter;temperature</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Flowmeter for Pillipp GmbH;++++++++++++++</t>
-        </is>
-      </c>
+      <c r="H3" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -541,6 +541,80 @@
       </c>
       <c r="H3" s="1" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>asadsad</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dasda</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>dasdsadsad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sads</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>adsad</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>sadsdsad</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dsvxcv</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>yxcds</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sdsaddasdas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>aasdasd</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>dsadsad</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>asdsad</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -539,79 +539,19 @@
           <t>blablablbal</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>asadsad</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dasda</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>dasdsadsad</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sads</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>adsad</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>sadsdsad</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>sadsad</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>dsvxcv</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>yxcds</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>sdsaddasdas</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>aasdasd</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>dsadsad</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>asdsad</t>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>flowmeter</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -541,17 +541,17 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2024;123</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>flowmeter</t>
+          <t>flowmeter;voltmeter</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>test;test</t>
         </is>
       </c>
     </row>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -486,72 +486,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ali</t>
+          <t>Customer Name</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Khajavi</t>
+          <t>Customer LastName</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a8.Khajavi@gmail.com</t>
+          <t>Customer@gmail.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0490000000000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Customer City</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Customer Description</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Customer Address</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Sensor Uniqe Code</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>flowmeter</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Sensor Description</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vida</t>
+          <t>asdad</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Khajavi</t>
+          <t>asdsad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>test@gmail.com</t>
+          <t>sadsad</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>021398602390</t>
+          <t>sadasd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Erlangen</t>
+          <t>sadas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>test------------------------------
-------------------------
------------------------------------
----------------</t>
+          <t>dsadsa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>blablablbal</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>2024;123</t>
+          <t>dsada</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>123213</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>flowmeter;voltmeter</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>test;test</t>
+          <t>asdsadsadsadasdsadasdsadsadsadsad</t>
         </is>
       </c>
     </row>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -521,17 +521,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sensor Uniqe Code</t>
+          <t>2024;2020;2022;2021</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>flowmeter</t>
+          <t>flowmeter;flowmeter;flowmeter;flowmeter</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Sensor Description</t>
+          <t>Sensor Description;*;*;*</t>
         </is>
       </c>
     </row>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -486,104 +486,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Customer Name</t>
+          <t>asdsad</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Customer LastName</t>
+          <t>sadasd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Customer@gmail.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0490000000000</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Customer City</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Customer Description</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Customer Address</t>
+          <t>asdsadasd</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024;2020;2022;2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>flowmeter;flowmeter;flowmeter;flowmeter</t>
+          <t>flowmeter</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Sensor Description;*;*;*</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>asdad</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>asdsad</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sadsad</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sadasd</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sadas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>dsadsa</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>dsada</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>123213</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>asdsadsadsadasdsadasdsadsadsadsad</t>
+          <t>*</t>
         </is>
       </c>
     </row>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -483,38 +483,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>asdsad</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sadasd</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>asdsadasd</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>flowmeter</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -483,6 +483,92 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adsd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sadasdasd</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>asdsadsad</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>asdsad</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>asdasdas</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2312321</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ampermeter</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>asdasda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>asdasdas</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>123;123;234;123213;124124154</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>flowmeter;voltmeter;temperature;voltmeter;flowmeter</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>dsfadfa;dsfadfa;123213;wefafaf;dsvdsadf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/customers_data.xlsx
+++ b/customers_data.xlsx
@@ -523,17 +523,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2312321</t>
+          <t>2312321;sdsad</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ampermeter</t>
+          <t>ampermeter;temperature</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>*;*</t>
         </is>
       </c>
     </row>
@@ -555,17 +555,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>123;123;234;123213;124124154</t>
+          <t>123;124124154</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>flowmeter;voltmeter;temperature;voltmeter;flowmeter</t>
+          <t>temperature;flowmeter</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>dsfadfa;dsfadfa;123213;wefafaf;dsvdsadf</t>
+          <t>dsfadfa;dsvdsadf</t>
         </is>
       </c>
     </row>
